--- a/Data/Bin_Taxonomy.xlsx
+++ b/Data/Bin_Taxonomy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="15340"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bin_taxonomy_edit" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -916,8 +916,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1272,11 +1273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1684,13 +1685,13 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>97</v>
       </c>
     </row>
@@ -1814,37 +1815,37 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>99</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I27">
-        <v>100</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>99</v>
       </c>
     </row>
@@ -2400,19 +2401,19 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>99</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>99</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>88</v>
       </c>
     </row>

--- a/Data/Bin_Taxonomy.xlsx
+++ b/Data/Bin_Taxonomy.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/login/Documents/MysticLakeBins/MWMW/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A1F79-0376-B94E-9159-CCF531E51EF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
   <si>
     <t>Bacteria</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Genus</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -433,6 +431,66 @@
   </si>
   <si>
     <t>Bin Name</t>
+  </si>
+  <si>
+    <t>Species (Centrifuge)</t>
+  </si>
+  <si>
+    <t>Rhodoferax ferrireducens</t>
+  </si>
+  <si>
+    <t>Limnohabitans sp. 103DPR2 </t>
+  </si>
+  <si>
+    <t>Nitrosomonas sp. Is79A3</t>
+  </si>
+  <si>
+    <t>Geobacter uraniireducens/ Pelobacter propionicus</t>
+  </si>
+  <si>
+    <t>Sulfuritalea hydrogenivorans sk43H</t>
+  </si>
+  <si>
+    <t>Opitutaceae bacterium IG16b aka Lacunisphaera limnophila</t>
+  </si>
+  <si>
+    <t>Nitrosospira briensis C-128</t>
+  </si>
+  <si>
+    <t>Desulfococcus</t>
+  </si>
+  <si>
+    <t>Escherichia coli B str. REL606</t>
+  </si>
+  <si>
+    <t>Flavobacterium indicum</t>
+  </si>
+  <si>
+    <t>Cyanobium gracile</t>
+  </si>
+  <si>
+    <t>Sideroxydans lithotrophicus</t>
+  </si>
+  <si>
+    <t>Geobacter uraniireducens</t>
+  </si>
+  <si>
+    <t>Rhodoferax ferrireducens / Limnohabitans sp. 103DPR2</t>
+  </si>
+  <si>
+    <t>Paucibacter sp. KCTC 42545</t>
+  </si>
+  <si>
+    <t>Magnetospirillum sp. XM-1 </t>
+  </si>
+  <si>
+    <t>Microcystis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planctopirus limnophila </t>
+  </si>
+  <si>
+    <t>Methylomicrobium alcaliphilum</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1289,14 +1347,14 @@
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -1311,19 +1369,19 @@
         <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
         <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
         <v>43</v>
@@ -1335,7 +1393,7 @@
         <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="O1" t="s">
         <v>43</v>
@@ -1343,7 +1401,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1354,7 +1412,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1365,7 +1423,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1382,7 +1440,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1414,10 +1472,13 @@
       <c r="K5">
         <v>75</v>
       </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1428,7 +1489,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1445,7 +1506,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1462,7 +1523,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1494,10 +1555,13 @@
       <c r="K9">
         <v>80</v>
       </c>
+      <c r="N9" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1514,7 +1578,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1546,10 +1610,13 @@
       <c r="K11">
         <v>79</v>
       </c>
+      <c r="N11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1560,7 +1627,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1577,7 +1644,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1609,10 +1676,13 @@
       <c r="K14">
         <v>98</v>
       </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1635,7 +1705,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1655,10 +1725,13 @@
       <c r="G16">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1667,9 +1740,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1683,10 +1756,13 @@
       <c r="E18">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1695,9 +1771,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1717,10 +1793,13 @@
       <c r="G20">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1729,9 +1808,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1746,9 +1825,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1757,20 +1836,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1797,9 +1876,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1813,10 +1892,13 @@
       <c r="E26">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -1848,10 +1930,13 @@
       <c r="K27" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1883,10 +1968,13 @@
       <c r="K28">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1895,9 +1983,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1923,10 +2011,13 @@
       <c r="I30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -1940,21 +2031,24 @@
       <c r="E31">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
         <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -1981,9 +2075,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2015,10 +2109,13 @@
       <c r="K34">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2032,10 +2129,13 @@
       <c r="E35">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2050,20 +2150,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>86</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -2089,10 +2189,13 @@
       <c r="I38">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -2101,20 +2204,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -2152,10 +2255,13 @@
       <c r="M41">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2176,9 +2282,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2187,9 +2293,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2228,9 +2334,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2239,9 +2345,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -2274,9 +2380,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -2291,9 +2397,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -2304,7 +2410,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -2321,7 +2427,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -2368,7 +2474,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -2385,7 +2491,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2402,7 +2508,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
@@ -2416,10 +2522,13 @@
       <c r="E53" s="1">
         <v>88</v>
       </c>
+      <c r="N53" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -2466,7 +2575,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -2477,18 +2586,21 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56">
         <v>99</v>
+      </c>
+      <c r="N56" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -2505,7 +2617,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -2516,7 +2628,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -2539,7 +2651,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -2550,7 +2662,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -2567,7 +2679,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -2578,7 +2690,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2610,10 +2722,13 @@
       <c r="K63">
         <v>100</v>
       </c>
+      <c r="N63" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -2630,7 +2745,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -2641,7 +2756,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -2658,7 +2773,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -2681,7 +2796,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -2692,7 +2807,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -2703,7 +2818,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -2738,7 +2853,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -2773,7 +2888,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2796,7 +2911,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -2813,7 +2928,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -2836,7 +2951,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -2847,7 +2962,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -2858,7 +2973,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -2875,7 +2990,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -2898,7 +3013,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -2933,7 +3048,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2962,7 +3077,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -2997,7 +3112,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -3014,7 +3129,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -3055,7 +3170,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -3084,7 +3199,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -3095,7 +3210,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -3118,7 +3233,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
@@ -3135,7 +3250,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>

--- a/Data/Bin_Taxonomy.xlsx
+++ b/Data/Bin_Taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/login/Documents/MysticLakeBins/MWMW/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A1F79-0376-B94E-9159-CCF531E51EF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3F54DF-7847-D447-BE34-043E86240451}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1060" windowWidth="27240" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bin_taxonomy_edit" sheetId="1" r:id="rId1"/>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1772,28 +1772,34 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>95</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>72</v>
       </c>
-      <c r="N20" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2744,13 +2750,13 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
         <v>96</v>
       </c>
     </row>
